--- a/Data/data_MIPAR_cropped_otsu.xlsx
+++ b/Data/data_MIPAR_cropped_otsu.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,31 +410,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5720</v>
+        <v>5631</v>
       </c>
       <c r="C2" t="n">
-        <v>677.6955199241638</v>
+        <v>640.5411919355392</v>
       </c>
       <c r="D2" t="n">
-        <v>32.52007293701172</v>
+        <v>30.41128349304199</v>
       </c>
       <c r="E2" t="n">
-        <v>286.9707336425781</v>
+        <v>305.3422241210938</v>
       </c>
       <c r="F2" t="n">
-        <v>159.7454032897949</v>
+        <v>167.8767538070679</v>
       </c>
       <c r="G2" t="n">
-        <v>46337</v>
+        <v>44459</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7598222484586121</v>
+        <v>0.7290272858454676</v>
       </c>
       <c r="I2" t="n">
-        <v>14647</v>
+        <v>16525</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2401777515413879</v>
+        <v>0.2709727141545323</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +442,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>11965</v>
+        <v>11563</v>
       </c>
       <c r="C3" t="n">
-        <v>859.5950146913528</v>
+        <v>781.0853482484818</v>
       </c>
       <c r="D3" t="n">
-        <v>51.63914108276367</v>
+        <v>43.04352188110352</v>
       </c>
       <c r="E3" t="n">
-        <v>391.0769653320312</v>
+        <v>410.8971252441406</v>
       </c>
       <c r="F3" t="n">
-        <v>221.3580532073975</v>
+        <v>226.9703235626221</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +462,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1552</v>
+        <v>1616</v>
       </c>
       <c r="C4" t="n">
-        <v>259.3797236680984</v>
+        <v>259.0365778207779</v>
       </c>
       <c r="D4" t="n">
-        <v>19.75662040710449</v>
+        <v>19.32566261291504</v>
       </c>
       <c r="E4" t="n">
-        <v>121.1966247558594</v>
+        <v>126.4496078491211</v>
       </c>
       <c r="F4" t="n">
-        <v>70.47662258148193</v>
+        <v>72.88763523101807</v>
       </c>
     </row>
     <row r="5">
@@ -482,19 +482,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>9632</v>
+        <v>8871</v>
       </c>
       <c r="C5" t="n">
-        <v>914.991983294487</v>
+        <v>930.4061968326569</v>
       </c>
       <c r="D5" t="n">
-        <v>38.96816253662109</v>
+        <v>35.07974624633789</v>
       </c>
       <c r="E5" t="n">
-        <v>407.4146728515625</v>
+        <v>400.163330078125</v>
       </c>
       <c r="F5" t="n">
-        <v>223.1914176940918</v>
+        <v>217.6215381622314</v>
       </c>
     </row>
     <row r="6">
@@ -502,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1779</v>
+        <v>1605</v>
       </c>
       <c r="C6" t="n">
-        <v>240.3675310611725</v>
+        <v>221.8822498321533</v>
       </c>
       <c r="D6" t="n">
-        <v>31.35111045837402</v>
+        <v>24.71928215026855</v>
       </c>
       <c r="E6" t="n">
-        <v>88.45452117919922</v>
+        <v>95.90810394287109</v>
       </c>
       <c r="F6" t="n">
-        <v>59.90281581878662</v>
+        <v>60.31369304656982</v>
       </c>
     </row>
     <row r="7">
@@ -522,19 +522,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>7334</v>
+        <v>6856</v>
       </c>
       <c r="C7" t="n">
-        <v>673.6711347103119</v>
+        <v>735.9970356225967</v>
       </c>
       <c r="D7" t="n">
-        <v>44.11947250366211</v>
+        <v>39.17403793334961</v>
       </c>
       <c r="E7" t="n">
-        <v>259.6560974121094</v>
+        <v>256.6661987304688</v>
       </c>
       <c r="F7" t="n">
-        <v>151.8877849578857</v>
+        <v>147.9201183319092</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +542,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>3298</v>
+        <v>2507</v>
       </c>
       <c r="C8" t="n">
-        <v>430.6173119544983</v>
+        <v>415.2030984163284</v>
       </c>
       <c r="D8" t="n">
-        <v>26.15449333190918</v>
+        <v>19.18442726135254</v>
       </c>
       <c r="E8" t="n">
-        <v>177.4716186523438</v>
+        <v>188.3136291503906</v>
       </c>
       <c r="F8" t="n">
-        <v>101.8130559921265</v>
+        <v>103.7490282058716</v>
       </c>
     </row>
     <row r="9">
@@ -562,19 +562,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C9" t="n">
-        <v>282.4091612100601</v>
+        <v>273.1959581375122</v>
       </c>
       <c r="D9" t="n">
-        <v>12.71029186248779</v>
+        <v>12.68131732940674</v>
       </c>
       <c r="E9" t="n">
-        <v>138.2126617431641</v>
+        <v>136.2668304443359</v>
       </c>
       <c r="F9" t="n">
-        <v>75.46147680282593</v>
+        <v>74.47407388687134</v>
       </c>
     </row>
     <row r="10">
@@ -582,39 +582,59 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="C10" t="n">
-        <v>115.2548332214355</v>
+        <v>110.5685415267944</v>
       </c>
       <c r="D10" t="n">
-        <v>16.69629859924316</v>
+        <v>12.49389171600342</v>
       </c>
       <c r="E10" t="n">
-        <v>34.89975357055664</v>
+        <v>41.55025482177734</v>
       </c>
       <c r="F10" t="n">
-        <v>25.7980260848999</v>
+        <v>27.02207326889038</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n">
+        <v>253</v>
+      </c>
+      <c r="C11" t="n">
+        <v>70.87005722522736</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.18415927886963</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.85371780395508</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.51893854141235</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>207</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60.72792184352875</v>
-      </c>
-      <c r="D11" t="n">
-        <v>15.56085586547852</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17.27862739562988</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.4197416305542</v>
+      <c r="B12" t="n">
+        <v>182</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72.87005722522736</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.06672096252441</v>
+      </c>
+      <c r="E12" t="n">
+        <v>18.46523475646973</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.76597785949707</v>
       </c>
     </row>
   </sheetData>
